--- a/ods/25-KW44 Time-Sheet.xlsx
+++ b/ods/25-KW44 Time-Sheet.xlsx
@@ -3200,11 +3200,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>27.10.2025</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3248,11 +3244,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>27.10.2025</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3296,11 +3288,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>27.10.2025</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3344,11 +3332,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>28.10.2025</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3392,11 +3376,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>28.10.2025</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3440,11 +3420,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>28.10.2025</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3488,11 +3464,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>28.10.2025</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3536,11 +3508,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>28.10.2025</t>
-        </is>
-      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3584,11 +3552,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>28.10.2025</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3632,11 +3596,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>29.10.2025</t>
-        </is>
-      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3680,11 +3640,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>29.10.2025</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3728,11 +3684,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>29.10.2025</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3776,11 +3728,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>29.10.2025</t>
-        </is>
-      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3824,11 +3772,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>29.10.2025</t>
-        </is>
-      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3872,11 +3816,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>29.10.2025</t>
-        </is>
-      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3920,11 +3860,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>30.10.2025</t>
-        </is>
-      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3968,11 +3904,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>30.10.2025</t>
-        </is>
-      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -4016,11 +3948,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>30.10.2025</t>
-        </is>
-      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -4064,11 +3992,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>30.10.2025</t>
-        </is>
-      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -4112,11 +4036,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>30.10.2025</t>
-        </is>
-      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
           <t>08:00</t>
